--- a/seguimiento/ProduccionDigital/SegDigital_CS_08_01_CO.xlsx
+++ b/seguimiento/ProduccionDigital/SegDigital_CS_08_01_CO.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\psf\Home\Documents\Aula Planeta Colombia\Repositorios\CienciasSociales\seguimiento\ProduccionDigital\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21713" windowHeight="9711"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21720" windowHeight="9720"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -231,7 +229,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,8 +282,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -310,6 +331,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -321,24 +348,26 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -376,17 +405,22 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -445,7 +479,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -480,7 +514,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -657,7 +691,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -669,20 +703,20 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G28" sqref="G28"/>
+      <selection pane="topRight" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="7.796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.73046875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.53125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.3984375" style="1" customWidth="1"/>
-    <col min="5" max="8" width="12.06640625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.6640625" style="1"/>
+    <col min="1" max="1" width="7.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" style="1" customWidth="1"/>
+    <col min="5" max="8" width="12" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.100000000000001" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="18">
       <c r="A1" s="12" t="s">
         <v>29</v>
       </c>
@@ -690,7 +724,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="2" customFormat="1" ht="21.15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" s="2" customFormat="1" ht="22">
       <c r="A3" s="4" t="s">
         <v>23</v>
       </c>
@@ -733,32 +767,34 @@
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" ht="15.85" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="15"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="7"/>
       <c r="D4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="14">
         <v>42087.625</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="H4" s="9"/>
+      <c r="H4" s="16">
+        <v>42088.333333333336</v>
+      </c>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="13"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L4" s="15"/>
+      <c r="M4" s="14"/>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
@@ -771,17 +807,19 @@
       <c r="D5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="9"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="16">
+        <v>42088.333333333336</v>
+      </c>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="13"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L5" s="15"/>
+      <c r="M5" s="14"/>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="10" t="s">
         <v>3</v>
       </c>
@@ -794,17 +832,19 @@
       <c r="D6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="9"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="16">
+        <v>42088.333333333336</v>
+      </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="13"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L6" s="15"/>
+      <c r="M6" s="14"/>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="10" t="s">
         <v>4</v>
       </c>
@@ -817,17 +857,19 @@
       <c r="D7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="9"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="16">
+        <v>42088.333333333336</v>
+      </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="13"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L7" s="15"/>
+      <c r="M7" s="14"/>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
@@ -840,17 +882,19 @@
       <c r="D8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="9"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="16">
+        <v>42088.333333333336</v>
+      </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="13"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L8" s="15"/>
+      <c r="M8" s="14"/>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="10" t="s">
         <v>6</v>
       </c>
@@ -863,17 +907,19 @@
       <c r="D9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="9"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="16">
+        <v>42088.333333333336</v>
+      </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="13"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L9" s="15"/>
+      <c r="M9" s="14"/>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="10" t="s">
         <v>7</v>
       </c>
@@ -886,17 +932,19 @@
       <c r="D10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="9"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="16">
+        <v>42088.333333333336</v>
+      </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="13"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L10" s="15"/>
+      <c r="M10" s="14"/>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="10" t="s">
         <v>8</v>
       </c>
@@ -909,17 +957,19 @@
       <c r="D11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="9"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="16">
+        <v>42088.333333333336</v>
+      </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="13"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L11" s="15"/>
+      <c r="M11" s="14"/>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="10" t="s">
         <v>9</v>
       </c>
@@ -932,17 +982,19 @@
       <c r="D12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="9"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="16">
+        <v>42088.333333333336</v>
+      </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="13"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L12" s="15"/>
+      <c r="M12" s="14"/>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="10" t="s">
         <v>10</v>
       </c>
@@ -955,17 +1007,19 @@
       <c r="D13" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="9"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="16">
+        <v>42088.333333333336</v>
+      </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="13"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L13" s="15"/>
+      <c r="M13" s="14"/>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="10" t="s">
         <v>11</v>
       </c>
@@ -978,17 +1032,19 @@
       <c r="D14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="9"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="16">
+        <v>42088.333333333336</v>
+      </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="13"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L14" s="15"/>
+      <c r="M14" s="14"/>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="10" t="s">
         <v>12</v>
       </c>
@@ -1001,17 +1057,19 @@
       <c r="D15" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="9"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="16">
+        <v>42088.333333333336</v>
+      </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="13"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L15" s="15"/>
+      <c r="M15" s="14"/>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="10" t="s">
         <v>13</v>
       </c>
@@ -1024,17 +1082,19 @@
       <c r="D16" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="9"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="16">
+        <v>42088.333333333336</v>
+      </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="13"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="L16" s="15"/>
+      <c r="M16" s="14"/>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="10" t="s">
         <v>14</v>
       </c>
@@ -1047,17 +1107,19 @@
       <c r="D17" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="9"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="16">
+        <v>42088.333333333336</v>
+      </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="13"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="L17" s="15"/>
+      <c r="M17" s="14"/>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="10" t="s">
         <v>15</v>
       </c>
@@ -1070,17 +1132,19 @@
       <c r="D18" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="9"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="16">
+        <v>42088.333333333336</v>
+      </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="13"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="L18" s="15"/>
+      <c r="M18" s="14"/>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="10" t="s">
         <v>16</v>
       </c>
@@ -1093,17 +1157,19 @@
       <c r="D19" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="9"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="16">
+        <v>42088.333333333336</v>
+      </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="13"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="L19" s="15"/>
+      <c r="M19" s="14"/>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="10" t="s">
         <v>17</v>
       </c>
@@ -1116,17 +1182,19 @@
       <c r="D20" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="9"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="16">
+        <v>42088.333333333336</v>
+      </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="13"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="L20" s="15"/>
+      <c r="M20" s="14"/>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="10" t="s">
         <v>18</v>
       </c>
@@ -1139,17 +1207,19 @@
       <c r="D21" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="9"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="16">
+        <v>42088.333333333336</v>
+      </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="13"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="L21" s="15"/>
+      <c r="M21" s="14"/>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="10" t="s">
         <v>19</v>
       </c>
@@ -1162,17 +1232,19 @@
       <c r="D22" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="9"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="16">
+        <v>42088.333333333336</v>
+      </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="13"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="L22" s="15"/>
+      <c r="M22" s="14"/>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="10" t="s">
         <v>20</v>
       </c>
@@ -1185,17 +1257,19 @@
       <c r="D23" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="9"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="16">
+        <v>42088.333333333336</v>
+      </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="13"/>
-    </row>
-    <row r="24" spans="1:13" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="L23" s="15"/>
+      <c r="M23" s="14"/>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="10" t="s">
         <v>21</v>
       </c>
@@ -1208,17 +1282,19 @@
       <c r="D24" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="9"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="16">
+        <v>42088.333333333336</v>
+      </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="13"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="L24" s="15"/>
+      <c r="M24" s="14"/>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="10" t="s">
         <v>22</v>
       </c>
@@ -1231,17 +1307,19 @@
       <c r="D25" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="9"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="16">
+        <v>42088.333333333336</v>
+      </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="13"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="L25" s="15"/>
+      <c r="M25" s="14"/>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="10" t="s">
         <v>32</v>
       </c>
@@ -1254,17 +1332,19 @@
       <c r="D26" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="9"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="16">
+        <v>42088.333333333336</v>
+      </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="13"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="L26" s="15"/>
+      <c r="M26" s="14"/>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="10" t="s">
         <v>33</v>
       </c>
@@ -1277,26 +1357,33 @@
       <c r="D27" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="9"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="16">
+        <v>42088.333333333336</v>
+      </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="13"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="M4:M27"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="E4:E27"/>
     <mergeCell ref="F4:F27"/>
     <mergeCell ref="G4:G27"/>
     <mergeCell ref="L4:L27"/>
-    <mergeCell ref="M4:M27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/seguimiento/ProduccionDigital/SegDigital_CS_08_01_CO.xlsx
+++ b/seguimiento/ProduccionDigital/SegDigital_CS_08_01_CO.xlsx
@@ -362,12 +362,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -405,22 +409,29 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="22" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="22" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="7">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -691,7 +702,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -703,7 +714,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H29" sqref="H29"/>
+      <selection pane="topRight" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -713,7 +724,8 @@
     <col min="3" max="3" width="10.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.33203125" style="1" customWidth="1"/>
     <col min="5" max="8" width="12" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="1"/>
+    <col min="9" max="10" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18">
@@ -768,10 +780,10 @@
       <c r="O3" s="3"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="13"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="7"/>
       <c r="D4" s="8" t="s">
         <v>27</v>
@@ -785,13 +797,13 @@
       <c r="G4" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="13">
         <v>42088.333333333336</v>
       </c>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
-      <c r="L4" s="15"/>
+      <c r="L4" s="16"/>
       <c r="M4" s="14"/>
     </row>
     <row r="5" spans="1:15">
@@ -810,13 +822,13 @@
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
-      <c r="H5" s="16">
+      <c r="H5" s="13">
         <v>42088.333333333336</v>
       </c>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
-      <c r="L5" s="15"/>
+      <c r="L5" s="16"/>
       <c r="M5" s="14"/>
     </row>
     <row r="6" spans="1:15">
@@ -835,13 +847,13 @@
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
-      <c r="H6" s="16">
+      <c r="H6" s="13">
         <v>42088.333333333336</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
-      <c r="L6" s="15"/>
+      <c r="L6" s="16"/>
       <c r="M6" s="14"/>
     </row>
     <row r="7" spans="1:15">
@@ -860,13 +872,13 @@
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
-      <c r="H7" s="16">
+      <c r="H7" s="13">
         <v>42088.333333333336</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="15"/>
+      <c r="L7" s="16"/>
       <c r="M7" s="14"/>
     </row>
     <row r="8" spans="1:15">
@@ -885,13 +897,15 @@
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
-      <c r="H8" s="16">
-        <v>42088.333333333336</v>
-      </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
+      <c r="H8" s="13">
+        <v>42088.333333333336</v>
+      </c>
+      <c r="I8" s="17">
+        <v>42089.666666666664</v>
+      </c>
+      <c r="J8" s="17"/>
       <c r="K8" s="9"/>
-      <c r="L8" s="15"/>
+      <c r="L8" s="16"/>
       <c r="M8" s="14"/>
     </row>
     <row r="9" spans="1:15">
@@ -910,13 +924,13 @@
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
-      <c r="H9" s="16">
+      <c r="H9" s="13">
         <v>42088.333333333336</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="15"/>
+      <c r="L9" s="16"/>
       <c r="M9" s="14"/>
     </row>
     <row r="10" spans="1:15">
@@ -935,13 +949,13 @@
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
-      <c r="H10" s="16">
+      <c r="H10" s="13">
         <v>42088.333333333336</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
-      <c r="L10" s="15"/>
+      <c r="L10" s="16"/>
       <c r="M10" s="14"/>
     </row>
     <row r="11" spans="1:15">
@@ -960,13 +974,13 @@
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
-      <c r="H11" s="16">
+      <c r="H11" s="13">
         <v>42088.333333333336</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
-      <c r="L11" s="15"/>
+      <c r="L11" s="16"/>
       <c r="M11" s="14"/>
     </row>
     <row r="12" spans="1:15">
@@ -985,13 +999,13 @@
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
-      <c r="H12" s="16">
+      <c r="H12" s="13">
         <v>42088.333333333336</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="15"/>
+      <c r="L12" s="16"/>
       <c r="M12" s="14"/>
     </row>
     <row r="13" spans="1:15">
@@ -1010,13 +1024,13 @@
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
-      <c r="H13" s="16">
+      <c r="H13" s="13">
         <v>42088.333333333336</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="15"/>
+      <c r="L13" s="16"/>
       <c r="M13" s="14"/>
     </row>
     <row r="14" spans="1:15">
@@ -1035,13 +1049,13 @@
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
-      <c r="H14" s="16">
+      <c r="H14" s="13">
         <v>42088.333333333336</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
-      <c r="L14" s="15"/>
+      <c r="L14" s="16"/>
       <c r="M14" s="14"/>
     </row>
     <row r="15" spans="1:15">
@@ -1060,13 +1074,13 @@
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
-      <c r="H15" s="16">
+      <c r="H15" s="13">
         <v>42088.333333333336</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
-      <c r="L15" s="15"/>
+      <c r="L15" s="16"/>
       <c r="M15" s="14"/>
     </row>
     <row r="16" spans="1:15">
@@ -1085,13 +1099,13 @@
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
-      <c r="H16" s="16">
+      <c r="H16" s="13">
         <v>42088.333333333336</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
-      <c r="L16" s="15"/>
+      <c r="L16" s="16"/>
       <c r="M16" s="14"/>
     </row>
     <row r="17" spans="1:13">
@@ -1110,13 +1124,15 @@
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
-      <c r="H17" s="16">
-        <v>42088.333333333336</v>
-      </c>
-      <c r="I17" s="9"/>
+      <c r="H17" s="13">
+        <v>42088.333333333336</v>
+      </c>
+      <c r="I17" s="17">
+        <v>42089.675694444442</v>
+      </c>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
-      <c r="L17" s="15"/>
+      <c r="L17" s="16"/>
       <c r="M17" s="14"/>
     </row>
     <row r="18" spans="1:13">
@@ -1135,13 +1151,13 @@
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
-      <c r="H18" s="16">
+      <c r="H18" s="13">
         <v>42088.333333333336</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
-      <c r="L18" s="15"/>
+      <c r="L18" s="16"/>
       <c r="M18" s="14"/>
     </row>
     <row r="19" spans="1:13">
@@ -1160,13 +1176,13 @@
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
-      <c r="H19" s="16">
+      <c r="H19" s="13">
         <v>42088.333333333336</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
-      <c r="L19" s="15"/>
+      <c r="L19" s="16"/>
       <c r="M19" s="14"/>
     </row>
     <row r="20" spans="1:13">
@@ -1185,13 +1201,13 @@
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
-      <c r="H20" s="16">
+      <c r="H20" s="13">
         <v>42088.333333333336</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
-      <c r="L20" s="15"/>
+      <c r="L20" s="16"/>
       <c r="M20" s="14"/>
     </row>
     <row r="21" spans="1:13">
@@ -1210,13 +1226,13 @@
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
-      <c r="H21" s="16">
+      <c r="H21" s="13">
         <v>42088.333333333336</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
-      <c r="L21" s="15"/>
+      <c r="L21" s="16"/>
       <c r="M21" s="14"/>
     </row>
     <row r="22" spans="1:13">
@@ -1235,13 +1251,13 @@
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
-      <c r="H22" s="16">
+      <c r="H22" s="13">
         <v>42088.333333333336</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
-      <c r="L22" s="15"/>
+      <c r="L22" s="16"/>
       <c r="M22" s="14"/>
     </row>
     <row r="23" spans="1:13">
@@ -1260,13 +1276,13 @@
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
-      <c r="H23" s="16">
+      <c r="H23" s="13">
         <v>42088.333333333336</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
-      <c r="L23" s="15"/>
+      <c r="L23" s="16"/>
       <c r="M23" s="14"/>
     </row>
     <row r="24" spans="1:13">
@@ -1285,13 +1301,13 @@
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
-      <c r="H24" s="16">
+      <c r="H24" s="13">
         <v>42088.333333333336</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
-      <c r="L24" s="15"/>
+      <c r="L24" s="16"/>
       <c r="M24" s="14"/>
     </row>
     <row r="25" spans="1:13">
@@ -1310,13 +1326,13 @@
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
-      <c r="H25" s="16">
+      <c r="H25" s="13">
         <v>42088.333333333336</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
-      <c r="L25" s="15"/>
+      <c r="L25" s="16"/>
       <c r="M25" s="14"/>
     </row>
     <row r="26" spans="1:13">
@@ -1335,13 +1351,13 @@
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
-      <c r="H26" s="16">
+      <c r="H26" s="13">
         <v>42088.333333333336</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
-      <c r="L26" s="15"/>
+      <c r="L26" s="16"/>
       <c r="M26" s="14"/>
     </row>
     <row r="27" spans="1:13">
@@ -1360,13 +1376,13 @@
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
-      <c r="H27" s="16">
+      <c r="H27" s="13">
         <v>42088.333333333336</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
-      <c r="L27" s="15"/>
+      <c r="L27" s="16"/>
       <c r="M27" s="14"/>
     </row>
   </sheetData>

--- a/seguimiento/ProduccionDigital/SegDigital_CS_08_01_CO.xlsx
+++ b/seguimiento/ProduccionDigital/SegDigital_CS_08_01_CO.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glorita\Documents\GitHub\CienciasSociales\seguimiento\ProduccionDigital\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21720" windowHeight="9720"/>
   </bookViews>
@@ -11,11 +16,11 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -412,6 +417,9 @@
     <xf numFmtId="22" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -420,9 +428,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -702,7 +707,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -717,18 +722,20 @@
       <selection pane="topRight" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" style="1" customWidth="1"/>
-    <col min="5" max="8" width="12" style="1" customWidth="1"/>
-    <col min="9" max="10" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="7.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" style="1" customWidth="1"/>
+    <col min="5" max="7" width="12" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18">
+    <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>29</v>
       </c>
@@ -736,7 +743,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="2" customFormat="1" ht="22">
+    <row r="3" spans="1:15" s="2" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>23</v>
       </c>
@@ -779,22 +786,22 @@
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="15"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="7"/>
       <c r="D4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="15">
         <v>42087.625</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="15" t="s">
         <v>65</v>
       </c>
       <c r="H4" s="13">
@@ -803,10 +810,10 @@
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="14"/>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="L4" s="17"/>
+      <c r="M4" s="15"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
@@ -819,19 +826,19 @@
       <c r="D5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
       <c r="H5" s="13">
         <v>42088.333333333336</v>
       </c>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="14"/>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="L5" s="17"/>
+      <c r="M5" s="15"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>3</v>
       </c>
@@ -844,19 +851,19 @@
       <c r="D6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
       <c r="H6" s="13">
         <v>42088.333333333336</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="14"/>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="L6" s="17"/>
+      <c r="M6" s="15"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>4</v>
       </c>
@@ -869,19 +876,19 @@
       <c r="D7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
       <c r="H7" s="13">
         <v>42088.333333333336</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="14"/>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="L7" s="17"/>
+      <c r="M7" s="15"/>
+    </row>
+    <row r="8" spans="1:15" ht="24" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
@@ -894,21 +901,21 @@
       <c r="D8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
       <c r="H8" s="13">
         <v>42088.333333333336</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="14">
         <v>42089.666666666664</v>
       </c>
-      <c r="J8" s="17"/>
+      <c r="J8" s="14"/>
       <c r="K8" s="9"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="14"/>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="L8" s="17"/>
+      <c r="M8" s="15"/>
+    </row>
+    <row r="9" spans="1:15" ht="24" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>6</v>
       </c>
@@ -921,19 +928,19 @@
       <c r="D9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
       <c r="H9" s="13">
         <v>42088.333333333336</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="14"/>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="L9" s="17"/>
+      <c r="M9" s="15"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>7</v>
       </c>
@@ -946,19 +953,19 @@
       <c r="D10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
       <c r="H10" s="13">
         <v>42088.333333333336</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="14"/>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="L10" s="17"/>
+      <c r="M10" s="15"/>
+    </row>
+    <row r="11" spans="1:15" ht="24" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>8</v>
       </c>
@@ -971,19 +978,19 @@
       <c r="D11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
       <c r="H11" s="13">
         <v>42088.333333333336</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="14"/>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="L11" s="17"/>
+      <c r="M11" s="15"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>9</v>
       </c>
@@ -996,19 +1003,19 @@
       <c r="D12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
       <c r="H12" s="13">
         <v>42088.333333333336</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="14"/>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="L12" s="17"/>
+      <c r="M12" s="15"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>10</v>
       </c>
@@ -1021,19 +1028,19 @@
       <c r="D13" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
       <c r="H13" s="13">
         <v>42088.333333333336</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="14"/>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="L13" s="17"/>
+      <c r="M13" s="15"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>11</v>
       </c>
@@ -1046,19 +1053,19 @@
       <c r="D14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
       <c r="H14" s="13">
         <v>42088.333333333336</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="14"/>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="L14" s="17"/>
+      <c r="M14" s="15"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>12</v>
       </c>
@@ -1071,19 +1078,19 @@
       <c r="D15" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
       <c r="H15" s="13">
         <v>42088.333333333336</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="14"/>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="L15" s="17"/>
+      <c r="M15" s="15"/>
+    </row>
+    <row r="16" spans="1:15" ht="24" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>13</v>
       </c>
@@ -1096,19 +1103,19 @@
       <c r="D16" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
       <c r="H16" s="13">
         <v>42088.333333333336</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="14"/>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="L16" s="17"/>
+      <c r="M16" s="15"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>14</v>
       </c>
@@ -1121,21 +1128,21 @@
       <c r="D17" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
       <c r="H17" s="13">
         <v>42088.333333333336</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I17" s="14">
         <v>42089.675694444442</v>
       </c>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="14"/>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="L17" s="17"/>
+      <c r="M17" s="15"/>
+    </row>
+    <row r="18" spans="1:13" ht="24" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>15</v>
       </c>
@@ -1148,19 +1155,19 @@
       <c r="D18" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
       <c r="H18" s="13">
         <v>42088.333333333336</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="14"/>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="L18" s="17"/>
+      <c r="M18" s="15"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>16</v>
       </c>
@@ -1173,19 +1180,19 @@
       <c r="D19" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
       <c r="H19" s="13">
         <v>42088.333333333336</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="14"/>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="L19" s="17"/>
+      <c r="M19" s="15"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>17</v>
       </c>
@@ -1198,19 +1205,19 @@
       <c r="D20" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
       <c r="H20" s="13">
         <v>42088.333333333336</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="14"/>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="L20" s="17"/>
+      <c r="M20" s="15"/>
+    </row>
+    <row r="21" spans="1:13" ht="24" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>18</v>
       </c>
@@ -1223,19 +1230,19 @@
       <c r="D21" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
       <c r="H21" s="13">
         <v>42088.333333333336</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="14"/>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="L21" s="17"/>
+      <c r="M21" s="15"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>19</v>
       </c>
@@ -1248,19 +1255,19 @@
       <c r="D22" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
       <c r="H22" s="13">
         <v>42088.333333333336</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="14"/>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="L22" s="17"/>
+      <c r="M22" s="15"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>20</v>
       </c>
@@ -1273,19 +1280,19 @@
       <c r="D23" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
       <c r="H23" s="13">
         <v>42088.333333333336</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="14"/>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="L23" s="17"/>
+      <c r="M23" s="15"/>
+    </row>
+    <row r="24" spans="1:13" ht="24" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>21</v>
       </c>
@@ -1298,19 +1305,19 @@
       <c r="D24" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
       <c r="H24" s="13">
         <v>42088.333333333336</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="14"/>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="L24" s="17"/>
+      <c r="M24" s="15"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>22</v>
       </c>
@@ -1323,19 +1330,19 @@
       <c r="D25" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
       <c r="H25" s="13">
         <v>42088.333333333336</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="14"/>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="L25" s="17"/>
+      <c r="M25" s="15"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>32</v>
       </c>
@@ -1348,19 +1355,19 @@
       <c r="D26" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
       <c r="H26" s="13">
         <v>42088.333333333336</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="14"/>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="L26" s="17"/>
+      <c r="M26" s="15"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>33</v>
       </c>
@@ -1373,17 +1380,17 @@
       <c r="D27" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
       <c r="H27" s="13">
         <v>42088.333333333336</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="14"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/seguimiento/ProduccionDigital/SegDigital_CS_08_01_CO.xlsx
+++ b/seguimiento/ProduccionDigital/SegDigital_CS_08_01_CO.xlsx
@@ -719,7 +719,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I18" sqref="I18"/>
+      <selection pane="topRight" activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -832,7 +832,9 @@
       <c r="H5" s="13">
         <v>42088.333333333336</v>
       </c>
-      <c r="I5" s="9"/>
+      <c r="I5" s="14">
+        <v>42094.416666666664</v>
+      </c>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="17"/>
@@ -857,7 +859,9 @@
       <c r="H6" s="13">
         <v>42088.333333333336</v>
       </c>
-      <c r="I6" s="9"/>
+      <c r="I6" s="14">
+        <v>42100.486111111109</v>
+      </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
       <c r="L6" s="17"/>
@@ -882,7 +886,9 @@
       <c r="H7" s="13">
         <v>42088.333333333336</v>
       </c>
-      <c r="I7" s="9"/>
+      <c r="I7" s="14">
+        <v>42100.486111111109</v>
+      </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
       <c r="L7" s="17"/>
@@ -934,7 +940,9 @@
       <c r="H9" s="13">
         <v>42088.333333333336</v>
       </c>
-      <c r="I9" s="9"/>
+      <c r="I9" s="14">
+        <v>42100.486111111109</v>
+      </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="17"/>
@@ -959,7 +967,9 @@
       <c r="H10" s="13">
         <v>42088.333333333336</v>
       </c>
-      <c r="I10" s="9"/>
+      <c r="I10" s="14">
+        <v>42100.486111111109</v>
+      </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c r="L10" s="17"/>
@@ -984,7 +994,9 @@
       <c r="H11" s="13">
         <v>42088.333333333336</v>
       </c>
-      <c r="I11" s="9"/>
+      <c r="I11" s="14">
+        <v>42100.486111111109</v>
+      </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c r="L11" s="17"/>
@@ -1009,7 +1021,9 @@
       <c r="H12" s="13">
         <v>42088.333333333336</v>
       </c>
-      <c r="I12" s="9"/>
+      <c r="I12" s="14">
+        <v>42100.486111111109</v>
+      </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c r="L12" s="17"/>
@@ -1034,7 +1048,9 @@
       <c r="H13" s="13">
         <v>42088.333333333336</v>
       </c>
-      <c r="I13" s="9"/>
+      <c r="I13" s="14">
+        <v>42100.486111111109</v>
+      </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c r="L13" s="17"/>
@@ -1059,7 +1075,9 @@
       <c r="H14" s="13">
         <v>42088.333333333336</v>
       </c>
-      <c r="I14" s="9"/>
+      <c r="I14" s="14">
+        <v>42100.486111111109</v>
+      </c>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c r="L14" s="17"/>
@@ -1084,7 +1102,9 @@
       <c r="H15" s="13">
         <v>42088.333333333336</v>
       </c>
-      <c r="I15" s="9"/>
+      <c r="I15" s="14">
+        <v>42100.486111111109</v>
+      </c>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c r="L15" s="17"/>
@@ -1109,7 +1129,9 @@
       <c r="H16" s="13">
         <v>42088.333333333336</v>
       </c>
-      <c r="I16" s="9"/>
+      <c r="I16" s="14">
+        <v>42100.486111111109</v>
+      </c>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="17"/>
@@ -1161,7 +1183,9 @@
       <c r="H18" s="13">
         <v>42088.333333333336</v>
       </c>
-      <c r="I18" s="9"/>
+      <c r="I18" s="14">
+        <v>42100.486111111109</v>
+      </c>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c r="L18" s="17"/>
@@ -1186,7 +1210,9 @@
       <c r="H19" s="13">
         <v>42088.333333333336</v>
       </c>
-      <c r="I19" s="9"/>
+      <c r="I19" s="14">
+        <v>42100.486111111109</v>
+      </c>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c r="L19" s="17"/>
@@ -1211,7 +1237,9 @@
       <c r="H20" s="13">
         <v>42088.333333333336</v>
       </c>
-      <c r="I20" s="9"/>
+      <c r="I20" s="14">
+        <v>42100.486111111109</v>
+      </c>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c r="L20" s="17"/>
@@ -1236,7 +1264,9 @@
       <c r="H21" s="13">
         <v>42088.333333333336</v>
       </c>
-      <c r="I21" s="9"/>
+      <c r="I21" s="14">
+        <v>42100.486111111109</v>
+      </c>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c r="L21" s="17"/>
@@ -1261,7 +1291,9 @@
       <c r="H22" s="13">
         <v>42088.333333333336</v>
       </c>
-      <c r="I22" s="9"/>
+      <c r="I22" s="14">
+        <v>42100.486111111109</v>
+      </c>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c r="L22" s="17"/>
@@ -1286,7 +1318,9 @@
       <c r="H23" s="13">
         <v>42088.333333333336</v>
       </c>
-      <c r="I23" s="9"/>
+      <c r="I23" s="14">
+        <v>42100.486111111109</v>
+      </c>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c r="L23" s="17"/>
@@ -1311,7 +1345,9 @@
       <c r="H24" s="13">
         <v>42088.333333333336</v>
       </c>
-      <c r="I24" s="9"/>
+      <c r="I24" s="14">
+        <v>42100.486111111109</v>
+      </c>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c r="L24" s="17"/>
@@ -1336,7 +1372,9 @@
       <c r="H25" s="13">
         <v>42088.333333333336</v>
       </c>
-      <c r="I25" s="9"/>
+      <c r="I25" s="14">
+        <v>42100.486111111109</v>
+      </c>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c r="L25" s="17"/>
@@ -1361,7 +1399,9 @@
       <c r="H26" s="13">
         <v>42088.333333333336</v>
       </c>
-      <c r="I26" s="9"/>
+      <c r="I26" s="14">
+        <v>42100.486111111109</v>
+      </c>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c r="L26" s="17"/>
@@ -1386,7 +1426,9 @@
       <c r="H27" s="13">
         <v>42088.333333333336</v>
       </c>
-      <c r="I27" s="9"/>
+      <c r="I27" s="14">
+        <v>42100.486111111109</v>
+      </c>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c r="L27" s="17"/>

--- a/seguimiento/ProduccionDigital/SegDigital_CS_08_01_CO.xlsx
+++ b/seguimiento/ProduccionDigital/SegDigital_CS_08_01_CO.xlsx
@@ -719,7 +719,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I28" sqref="I28"/>
+      <selection pane="topRight" activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,8 +730,7 @@
     <col min="4" max="4" width="8.28515625" style="1" customWidth="1"/>
     <col min="5" max="7" width="12" style="1" customWidth="1"/>
     <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
@@ -862,7 +861,9 @@
       <c r="I6" s="14">
         <v>42100.486111111109</v>
       </c>
-      <c r="J6" s="9"/>
+      <c r="J6" s="14">
+        <v>42104.659722222219</v>
+      </c>
       <c r="K6" s="9"/>
       <c r="L6" s="17"/>
       <c r="M6" s="15"/>
@@ -916,7 +917,9 @@
       <c r="I8" s="14">
         <v>42089.666666666664</v>
       </c>
-      <c r="J8" s="14"/>
+      <c r="J8" s="14">
+        <v>42095.875</v>
+      </c>
       <c r="K8" s="9"/>
       <c r="L8" s="17"/>
       <c r="M8" s="15"/>
@@ -943,7 +946,9 @@
       <c r="I9" s="14">
         <v>42100.486111111109</v>
       </c>
-      <c r="J9" s="9"/>
+      <c r="J9" s="14">
+        <v>42104.660416666666</v>
+      </c>
       <c r="K9" s="9"/>
       <c r="L9" s="17"/>
       <c r="M9" s="15"/>
@@ -970,7 +975,9 @@
       <c r="I10" s="14">
         <v>42100.486111111109</v>
       </c>
-      <c r="J10" s="9"/>
+      <c r="J10" s="14">
+        <v>42104.458333333336</v>
+      </c>
       <c r="K10" s="9"/>
       <c r="L10" s="17"/>
       <c r="M10" s="15"/>
@@ -997,7 +1004,9 @@
       <c r="I11" s="14">
         <v>42100.486111111109</v>
       </c>
-      <c r="J11" s="9"/>
+      <c r="J11" s="14">
+        <v>42104.661111111112</v>
+      </c>
       <c r="K11" s="9"/>
       <c r="L11" s="17"/>
       <c r="M11" s="15"/>
@@ -1051,7 +1060,9 @@
       <c r="I13" s="14">
         <v>42100.486111111109</v>
       </c>
-      <c r="J13" s="9"/>
+      <c r="J13" s="14">
+        <v>42104.536111111112</v>
+      </c>
       <c r="K13" s="9"/>
       <c r="L13" s="17"/>
       <c r="M13" s="15"/>
@@ -1105,7 +1116,9 @@
       <c r="I15" s="14">
         <v>42100.486111111109</v>
       </c>
-      <c r="J15" s="9"/>
+      <c r="J15" s="14">
+        <v>42104.661805555559</v>
+      </c>
       <c r="K15" s="9"/>
       <c r="L15" s="17"/>
       <c r="M15" s="15"/>
@@ -1132,7 +1145,9 @@
       <c r="I16" s="14">
         <v>42100.486111111109</v>
       </c>
-      <c r="J16" s="9"/>
+      <c r="J16" s="14">
+        <v>42104.638888888891</v>
+      </c>
       <c r="K16" s="9"/>
       <c r="L16" s="17"/>
       <c r="M16" s="15"/>
@@ -1159,7 +1174,9 @@
       <c r="I17" s="14">
         <v>42089.675694444442</v>
       </c>
-      <c r="J17" s="9"/>
+      <c r="J17" s="14">
+        <v>42094.756944444445</v>
+      </c>
       <c r="K17" s="9"/>
       <c r="L17" s="17"/>
       <c r="M17" s="15"/>
@@ -1186,7 +1203,9 @@
       <c r="I18" s="14">
         <v>42100.486111111109</v>
       </c>
-      <c r="J18" s="9"/>
+      <c r="J18" s="14">
+        <v>42104.689583333333</v>
+      </c>
       <c r="K18" s="9"/>
       <c r="L18" s="17"/>
       <c r="M18" s="15"/>
@@ -1240,7 +1259,9 @@
       <c r="I20" s="14">
         <v>42100.486111111109</v>
       </c>
-      <c r="J20" s="9"/>
+      <c r="J20" s="14">
+        <v>42104.706944444442</v>
+      </c>
       <c r="K20" s="9"/>
       <c r="L20" s="17"/>
       <c r="M20" s="15"/>
@@ -1321,7 +1342,9 @@
       <c r="I23" s="14">
         <v>42100.486111111109</v>
       </c>
-      <c r="J23" s="9"/>
+      <c r="J23" s="14">
+        <v>42104.740277777775</v>
+      </c>
       <c r="K23" s="9"/>
       <c r="L23" s="17"/>
       <c r="M23" s="15"/>

--- a/seguimiento/ProduccionDigital/SegDigital_CS_08_01_CO.xlsx
+++ b/seguimiento/ProduccionDigital/SegDigital_CS_08_01_CO.xlsx
@@ -1,33 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glorita\Documents\GitHub\CienciasSociales\seguimiento\ProduccionDigital\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21720" windowHeight="9720"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30220" windowHeight="14860"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="70">
   <si>
     <t>Cuaderno de estudio</t>
   </si>
@@ -225,6 +220,18 @@
   </si>
   <si>
     <t>24/03/2015 6:00pm</t>
+  </si>
+  <si>
+    <t>Observaciones</t>
+  </si>
+  <si>
+    <t>OK / "Entregar a mano" por "Entregar por escrito"</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Video no carga</t>
   </si>
 </sst>
 </file>
@@ -367,8 +374,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -430,13 +453,29 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="23">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -707,7 +746,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -715,26 +754,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J24" sqref="J24"/>
+      <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M4" sqref="M4:M27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" style="1" customWidth="1"/>
     <col min="5" max="7" width="12" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.85546875" style="1"/>
+    <col min="8" max="8" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="38.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="18">
       <c r="A1" s="12" t="s">
         <v>29</v>
       </c>
@@ -742,7 +783,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="2" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" s="2" customFormat="1" ht="22">
       <c r="A3" s="4" t="s">
         <v>23</v>
       </c>
@@ -777,15 +818,18 @@
         <v>38</v>
       </c>
       <c r="L3" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="M3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="N3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="N3" s="3"/>
       <c r="O3" s="3"/>
-    </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P3" s="3"/>
+    </row>
+    <row r="4" spans="1:16" ht="15.75" customHeight="1">
       <c r="A4" s="16" t="s">
         <v>0</v>
       </c>
@@ -806,13 +850,22 @@
       <c r="H4" s="13">
         <v>42088.333333333336</v>
       </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="15"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I4" s="14">
+        <v>42143.784722222219</v>
+      </c>
+      <c r="J4" s="14">
+        <v>42143.909722222219</v>
+      </c>
+      <c r="K4" s="14">
+        <v>42143.909722222219</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" s="17"/>
+      <c r="N4" s="15"/>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
@@ -834,12 +887,19 @@
       <c r="I5" s="14">
         <v>42094.416666666664</v>
       </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="15"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J5" s="14">
+        <v>42104.784722222219</v>
+      </c>
+      <c r="K5" s="14">
+        <v>42166.8125</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" s="17"/>
+      <c r="N5" s="15"/>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="10" t="s">
         <v>3</v>
       </c>
@@ -864,11 +924,16 @@
       <c r="J6" s="14">
         <v>42104.659722222219</v>
       </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="15"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K6" s="14">
+        <v>42166.8125</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="M6" s="17"/>
+      <c r="N6" s="15"/>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="10" t="s">
         <v>4</v>
       </c>
@@ -890,12 +955,19 @@
       <c r="I7" s="14">
         <v>42100.486111111109</v>
       </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="15"/>
-    </row>
-    <row r="8" spans="1:15" ht="24" x14ac:dyDescent="0.25">
+      <c r="J7" s="14">
+        <v>42104.784722222219</v>
+      </c>
+      <c r="K7" s="14">
+        <v>42166.8125</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="M7" s="17"/>
+      <c r="N7" s="15"/>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
@@ -920,11 +992,16 @@
       <c r="J8" s="14">
         <v>42095.875</v>
       </c>
-      <c r="K8" s="9"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="15"/>
-    </row>
-    <row r="9" spans="1:15" ht="24" x14ac:dyDescent="0.25">
+      <c r="K8" s="14">
+        <v>42166.8125</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="M8" s="17"/>
+      <c r="N8" s="15"/>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="10" t="s">
         <v>6</v>
       </c>
@@ -949,11 +1026,16 @@
       <c r="J9" s="14">
         <v>42104.660416666666</v>
       </c>
-      <c r="K9" s="9"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="15"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K9" s="14">
+        <v>42166.8125</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="M9" s="17"/>
+      <c r="N9" s="15"/>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="10" t="s">
         <v>7</v>
       </c>
@@ -978,11 +1060,16 @@
       <c r="J10" s="14">
         <v>42104.458333333336</v>
       </c>
-      <c r="K10" s="9"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="15"/>
-    </row>
-    <row r="11" spans="1:15" ht="24" x14ac:dyDescent="0.25">
+      <c r="K10" s="14">
+        <v>42166.8125</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="M10" s="17"/>
+      <c r="N10" s="15"/>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="10" t="s">
         <v>8</v>
       </c>
@@ -1007,11 +1094,16 @@
       <c r="J11" s="14">
         <v>42104.661111111112</v>
       </c>
-      <c r="K11" s="9"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="15"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K11" s="14">
+        <v>42166.8125</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="M11" s="17"/>
+      <c r="N11" s="15"/>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="10" t="s">
         <v>9</v>
       </c>
@@ -1033,12 +1125,19 @@
       <c r="I12" s="14">
         <v>42100.486111111109</v>
       </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="15"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J12" s="14">
+        <v>42104.784722222219</v>
+      </c>
+      <c r="K12" s="14">
+        <v>42166.8125</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="M12" s="17"/>
+      <c r="N12" s="15"/>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="10" t="s">
         <v>10</v>
       </c>
@@ -1063,11 +1162,16 @@
       <c r="J13" s="14">
         <v>42104.536111111112</v>
       </c>
-      <c r="K13" s="9"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="15"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K13" s="14">
+        <v>42166.8125</v>
+      </c>
+      <c r="L13" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="M13" s="17"/>
+      <c r="N13" s="15"/>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="10" t="s">
         <v>11</v>
       </c>
@@ -1089,12 +1193,19 @@
       <c r="I14" s="14">
         <v>42100.486111111109</v>
       </c>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="15"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J14" s="14">
+        <v>42104.784722222219</v>
+      </c>
+      <c r="K14" s="14">
+        <v>42166.8125</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="M14" s="17"/>
+      <c r="N14" s="15"/>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="10" t="s">
         <v>12</v>
       </c>
@@ -1119,11 +1230,16 @@
       <c r="J15" s="14">
         <v>42104.661805555559</v>
       </c>
-      <c r="K15" s="9"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="15"/>
-    </row>
-    <row r="16" spans="1:15" ht="24" x14ac:dyDescent="0.25">
+      <c r="K15" s="14">
+        <v>42166.8125</v>
+      </c>
+      <c r="L15" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="M15" s="17"/>
+      <c r="N15" s="15"/>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="10" t="s">
         <v>13</v>
       </c>
@@ -1148,11 +1264,16 @@
       <c r="J16" s="14">
         <v>42104.638888888891</v>
       </c>
-      <c r="K16" s="9"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="15"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K16" s="14">
+        <v>42166.8125</v>
+      </c>
+      <c r="L16" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="M16" s="17"/>
+      <c r="N16" s="15"/>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="10" t="s">
         <v>14</v>
       </c>
@@ -1177,11 +1298,16 @@
       <c r="J17" s="14">
         <v>42094.756944444445</v>
       </c>
-      <c r="K17" s="9"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="15"/>
-    </row>
-    <row r="18" spans="1:13" ht="24" x14ac:dyDescent="0.25">
+      <c r="K17" s="14">
+        <v>42166.8125</v>
+      </c>
+      <c r="L17" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="M17" s="17"/>
+      <c r="N17" s="15"/>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="10" t="s">
         <v>15</v>
       </c>
@@ -1206,11 +1332,16 @@
       <c r="J18" s="14">
         <v>42104.689583333333</v>
       </c>
-      <c r="K18" s="9"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="15"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K18" s="14">
+        <v>42166.8125</v>
+      </c>
+      <c r="L18" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="M18" s="17"/>
+      <c r="N18" s="15"/>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="10" t="s">
         <v>16</v>
       </c>
@@ -1232,12 +1363,19 @@
       <c r="I19" s="14">
         <v>42100.486111111109</v>
       </c>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="15"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J19" s="14">
+        <v>42104.784722222219</v>
+      </c>
+      <c r="K19" s="14">
+        <v>42166.8125</v>
+      </c>
+      <c r="L19" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="M19" s="17"/>
+      <c r="N19" s="15"/>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="10" t="s">
         <v>17</v>
       </c>
@@ -1262,11 +1400,16 @@
       <c r="J20" s="14">
         <v>42104.706944444442</v>
       </c>
-      <c r="K20" s="9"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="15"/>
-    </row>
-    <row r="21" spans="1:13" ht="24" x14ac:dyDescent="0.25">
+      <c r="K20" s="14">
+        <v>42166.8125</v>
+      </c>
+      <c r="L20" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="M20" s="17"/>
+      <c r="N20" s="15"/>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="10" t="s">
         <v>18</v>
       </c>
@@ -1288,12 +1431,19 @@
       <c r="I21" s="14">
         <v>42100.486111111109</v>
       </c>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="15"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J21" s="14">
+        <v>42104.784722222219</v>
+      </c>
+      <c r="K21" s="14">
+        <v>42166.8125</v>
+      </c>
+      <c r="L21" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="M21" s="17"/>
+      <c r="N21" s="15"/>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="10" t="s">
         <v>19</v>
       </c>
@@ -1315,12 +1465,19 @@
       <c r="I22" s="14">
         <v>42100.486111111109</v>
       </c>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="15"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J22" s="14">
+        <v>42104.784722222219</v>
+      </c>
+      <c r="K22" s="14">
+        <v>42166.8125</v>
+      </c>
+      <c r="L22" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="M22" s="17"/>
+      <c r="N22" s="15"/>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="10" t="s">
         <v>20</v>
       </c>
@@ -1345,11 +1502,16 @@
       <c r="J23" s="14">
         <v>42104.740277777775</v>
       </c>
-      <c r="K23" s="9"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="15"/>
-    </row>
-    <row r="24" spans="1:13" ht="24" x14ac:dyDescent="0.25">
+      <c r="K23" s="14">
+        <v>42166.8125</v>
+      </c>
+      <c r="L23" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="M23" s="17"/>
+      <c r="N23" s="15"/>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="10" t="s">
         <v>21</v>
       </c>
@@ -1371,12 +1533,19 @@
       <c r="I24" s="14">
         <v>42100.486111111109</v>
       </c>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="15"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J24" s="14">
+        <v>42104.784722222219</v>
+      </c>
+      <c r="K24" s="14">
+        <v>42166.8125</v>
+      </c>
+      <c r="L24" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="M24" s="17"/>
+      <c r="N24" s="15"/>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="10" t="s">
         <v>22</v>
       </c>
@@ -1398,12 +1567,19 @@
       <c r="I25" s="14">
         <v>42100.486111111109</v>
       </c>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="15"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J25" s="14">
+        <v>42104.784722222219</v>
+      </c>
+      <c r="K25" s="14">
+        <v>42166.8125</v>
+      </c>
+      <c r="L25" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="M25" s="17"/>
+      <c r="N25" s="15"/>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="10" t="s">
         <v>32</v>
       </c>
@@ -1425,12 +1601,19 @@
       <c r="I26" s="14">
         <v>42100.486111111109</v>
       </c>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="15"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J26" s="14">
+        <v>42104.784722222219</v>
+      </c>
+      <c r="K26" s="14">
+        <v>42166.8125</v>
+      </c>
+      <c r="L26" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="M26" s="17"/>
+      <c r="N26" s="15"/>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="10" t="s">
         <v>33</v>
       </c>
@@ -1452,19 +1635,26 @@
       <c r="I27" s="14">
         <v>42100.486111111109</v>
       </c>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="15"/>
+      <c r="J27" s="14">
+        <v>42104.784722222219</v>
+      </c>
+      <c r="K27" s="14">
+        <v>42166.8125</v>
+      </c>
+      <c r="L27" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="M27" s="17"/>
+      <c r="N27" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="M4:M27"/>
+    <mergeCell ref="N4:N27"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="E4:E27"/>
     <mergeCell ref="F4:F27"/>
     <mergeCell ref="G4:G27"/>
-    <mergeCell ref="L4:L27"/>
+    <mergeCell ref="M4:M27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/seguimiento/ProduccionDigital/SegDigital_CS_08_01_CO.xlsx
+++ b/seguimiento/ProduccionDigital/SegDigital_CS_08_01_CO.xlsx
@@ -374,8 +374,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -453,7 +455,7 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="25">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -465,6 +467,7 @@
     <cellStyle name="Hipervínculo" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
@@ -476,6 +479,7 @@
     <cellStyle name="Hipervínculo visitado" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -746,7 +750,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -758,7 +762,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M4" sqref="M4:M27"/>
+      <selection pane="topRight" activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -862,7 +866,9 @@
       <c r="L4" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="M4" s="17"/>
+      <c r="M4" s="17">
+        <v>42167.527777777781</v>
+      </c>
       <c r="N4" s="15"/>
     </row>
     <row r="5" spans="1:16">
